--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/125.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/125.xlsx
@@ -479,13 +479,13 @@
         <v>-20.57290793280003</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.02688686050626</v>
+        <v>-10.02239620063155</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.101700180072415</v>
+        <v>-3.102472625940077</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.883163102150997</v>
+        <v>-6.877677427260314</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-20.08655424963149</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.32319185842021</v>
+        <v>-10.31867501393981</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.031433790720871</v>
+        <v>-3.032585913370943</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.857934234574991</v>
+        <v>-6.852566390409883</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-19.60829802060049</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.1475225222438</v>
+        <v>-11.14277001631226</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.822663929606707</v>
+        <v>-2.824496852004549</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.732051742751795</v>
+        <v>-6.726696990889529</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.16835643671277</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.87253497671007</v>
+        <v>-11.86761227084158</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.805774858940881</v>
+        <v>-2.807084089225053</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.981748142549194</v>
+        <v>-6.976367206081245</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-18.7235896232085</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.73903594798687</v>
+        <v>-12.73379902685017</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.592684537888947</v>
+        <v>-2.594334168047005</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.485536772544934</v>
+        <v>-6.480286759105402</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-18.240299707073</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.41635314320072</v>
+        <v>-13.4113256989095</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.527615792765569</v>
+        <v>-2.529134499895209</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.56749458833414</v>
+        <v>-6.562558790162809</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-17.69330972125515</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.99960214249678</v>
+        <v>-13.99397245227483</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.438404841202047</v>
+        <v>-2.439936640634529</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.041812444633154</v>
+        <v>-6.037374153969809</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-17.07613668731348</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.00942455298195</v>
+        <v>-15.00384723197137</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.269566503755148</v>
+        <v>-2.270836457130795</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.827753293170933</v>
+        <v>-5.823642310078632</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-16.37861332958457</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.75306735439199</v>
+        <v>-15.74728055653595</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.234230378385329</v>
+        <v>-2.235513424063818</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.456939999784726</v>
+        <v>-5.453208693474834</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.62157875696147</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.46768452040192</v>
+        <v>-16.46172752260894</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.021192426544762</v>
+        <v>-2.022501656828935</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.219903856835275</v>
+        <v>-5.216460581187902</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.83712254044355</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.12030963245629</v>
+        <v>-17.11432645005762</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.170876724934216</v>
+        <v>-2.171439693956411</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.703333955912131</v>
+        <v>-4.699799034144866</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-14.05715793678964</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.09016124236567</v>
+        <v>-18.08438753681247</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.948058822870881</v>
+        <v>-1.948713438012967</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.017532948456837</v>
+        <v>-4.014403888077664</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-13.33469223646367</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.68044080828773</v>
+        <v>-18.67464091812885</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.695835608625028</v>
+        <v>-1.696241470013121</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.766540410678106</v>
+        <v>-3.763254242664833</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.72045343909447</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.61436713919942</v>
+        <v>-19.60854106443485</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.563773549860537</v>
+        <v>-1.563917565191796</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.174257722421261</v>
+        <v>-3.170906092893779</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-12.23932411053608</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.54504657900636</v>
+        <v>-20.53927287345316</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.388205768752991</v>
+        <v>-1.388519984021192</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.723175520312431</v>
+        <v>-2.720308305990093</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-11.90231226541591</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.34048253045827</v>
+        <v>-21.33474810181359</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.228178551118573</v>
+        <v>-1.228244012632781</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.246314573908242</v>
+        <v>-2.243146236620544</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-11.69572941116234</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.30343449677006</v>
+        <v>-22.29777862194243</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.119865929708973</v>
+        <v>-1.11991829892034</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.861256855030237</v>
+        <v>-1.858572932947683</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.57898948697867</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.15201210545654</v>
+        <v>-23.14622530760049</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.037986667736818</v>
+        <v>-1.0376986370743</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.521459227076079</v>
+        <v>-1.518369443605431</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-11.5116952366127</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.86333001115036</v>
+        <v>-23.85735992105453</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.8336681895888411</v>
+        <v>-0.8331183128694887</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.18674141262451</v>
+        <v>-1.183756367576596</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-11.45635295761122</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.47124490900022</v>
+        <v>-24.4655890341726</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5778969612728807</v>
+        <v>-0.5770721461938519</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.8180228876929786</v>
+        <v>-0.8151949502791657</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.37596640877985</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.15773980850613</v>
+        <v>-25.15173044150178</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.4504433931086775</v>
+        <v>-0.4490687013102962</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.5854381277097149</v>
+        <v>-0.5832255285294632</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-11.2533236031542</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.56416416562183</v>
+        <v>-25.55853447539989</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.3940810293750467</v>
+        <v>-0.392444491519831</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.4042930255915931</v>
+        <v>-0.4021197033198665</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.08499626343706</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.02849577820649</v>
+        <v>-26.02259114962487</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.427283109381664</v>
+        <v>-0.4256727561321317</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.3562442741624584</v>
+        <v>-0.3544113517646167</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.8744922342209</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.27673893238845</v>
+        <v>-26.27100450374378</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1163278245878282</v>
+        <v>-0.1148614866695549</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.3396956033705166</v>
+        <v>-0.3379412347897254</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.63584872001124</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.29864235504266</v>
+        <v>-26.29259371112979</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1635255763322507</v>
+        <v>-0.1620068692026105</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.5083113716691067</v>
+        <v>-0.5067272030252579</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.38880689309059</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.33251214249421</v>
+        <v>-26.32637185246144</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.3535603520799045</v>
+        <v>-0.352054737253106</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.471495816078173</v>
+        <v>-0.4699247397371659</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.15186152621145</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.37078094370057</v>
+        <v>-26.36465374597065</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1308079115307772</v>
+        <v>-0.1296557888807053</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7802646862974406</v>
+        <v>-0.7784448562024406</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.942187474347298</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.47968271873805</v>
+        <v>-26.4733591364655</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1919227811959545</v>
+        <v>-0.1908099354544078</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.8328564668126542</v>
+        <v>-0.8313246673801722</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.777268775459019</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.20682603521364</v>
+        <v>-26.20073811439223</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.2820763785640802</v>
+        <v>-0.2809766251253752</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9614097884155625</v>
+        <v>-0.9601136504342316</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.669314879526091</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.79859494030578</v>
+        <v>-25.7922320811247</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.2915813904271733</v>
+        <v>-0.2905994677140439</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.485403025049965</v>
+        <v>-1.484067610160109</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.620431677361411</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.88423169319351</v>
+        <v>-25.87752843413854</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1972120715440119</v>
+        <v>-0.1964003487678248</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.66581495820895</v>
+        <v>-1.663929666599742</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.627472379890374</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.45651925165716</v>
+        <v>-25.44977671569367</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.2426030854962761</v>
+        <v>-0.2418699165371395</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.168899787205116</v>
+        <v>-2.16696212638454</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.68184655361569</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.81224702881582</v>
+        <v>-24.80577943121201</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2741686276476777</v>
+        <v>-0.2738413200766345</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.186954072823856</v>
+        <v>-2.185291350362957</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.767432041928837</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.45349174634684</v>
+        <v>-24.44691941032029</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.4753711377193239</v>
+        <v>-0.4751878454795397</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.34133850793349</v>
+        <v>-2.339296108690181</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.867131727561958</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.64576212252655</v>
+        <v>-23.63953018637389</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5642547817118022</v>
+        <v>-0.5641238586833849</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.505083939574958</v>
+        <v>-2.503133186451541</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.964086993570733</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.84804811038018</v>
+        <v>-22.84202565107299</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.51933509066184</v>
+        <v>-0.5192172599362644</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.677326275760706</v>
+        <v>-2.67523150730603</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-10.03908323991249</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.48544369087574</v>
+        <v>-22.47901537018045</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5712984406406508</v>
+        <v>-0.5713115329434926</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.953704788749544</v>
+        <v>-2.951544558780659</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-10.07938376968426</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.82132353692634</v>
+        <v>-21.81498686235095</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5271250108526671</v>
+        <v>-0.5267715186759404</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.145637948409247</v>
+        <v>-3.143281333897737</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-10.08265284482518</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.42377576113733</v>
+        <v>-21.41758310189319</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6915905191504299</v>
+        <v>-0.6917476267845306</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.328864726679204</v>
+        <v>-3.326547389076218</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-10.0504418136648</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.77285264845239</v>
+        <v>-20.76697420447645</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4995395287651502</v>
+        <v>-0.4994871595537833</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.252824631774459</v>
+        <v>-3.250206171206114</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.992715528870887</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.28375039889119</v>
+        <v>-20.27798978564083</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.2532078507980742</v>
+        <v>-0.2531554815867073</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.374465217476936</v>
+        <v>-3.37123141867503</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.929164295439387</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.36275926318713</v>
+        <v>-19.35690700381688</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.2210793396244785</v>
+        <v>-0.221485201012572</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.367408466245245</v>
+        <v>-3.363912821386505</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.874811038217322</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.02486001914502</v>
+        <v>-19.01921723662024</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.1701371892673223</v>
+        <v>-0.1704121276269986</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.605518178027717</v>
+        <v>-3.601865425534876</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.84507696347236</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.44593147978673</v>
+        <v>-18.44057672792447</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.1981416250457744</v>
+        <v>-0.1985213018281844</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.675954767316204</v>
+        <v>-3.672118722583578</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.859722143628813</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.97515845420395</v>
+        <v>-17.96996080997578</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.1208577613710654</v>
+        <v>-0.1211719766392668</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.473691780714378</v>
+        <v>-3.469999751313011</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.92689142346625</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.28300767987042</v>
+        <v>-17.27767911261383</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.1809121545060629</v>
+        <v>-0.181291831288473</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.860359852841915</v>
+        <v>-3.85630123896098</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.05189219976529</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.617813957088</v>
+        <v>-16.61257703595131</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.1266576515299501</v>
+        <v>-0.1271158821294105</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.704338879877066</v>
+        <v>-3.700673035081382</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.24314497015687</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.95564455626202</v>
+        <v>-15.95082658881626</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.0410470832479033</v>
+        <v>-0.04136129851610473</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.016668856469283</v>
+        <v>-4.01262333489119</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.4962538077035</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.22218756646284</v>
+        <v>-15.21759216816539</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01708274136936044</v>
+        <v>0.01705655676367699</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.980599562140327</v>
+        <v>-3.976121994568457</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.80401426132499</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.4036175158896</v>
+        <v>-14.39885191765521</v>
       </c>
       <c r="F51" t="n">
-        <v>0.05270689740169707</v>
+        <v>0.05262834358464671</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.170176107288521</v>
+        <v>-4.165358139842766</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-11.16382424971885</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.82561853003308</v>
+        <v>-13.82085293179869</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1159558124300757</v>
+        <v>0.1158772586130253</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.047566691175756</v>
+        <v>-4.043350969660721</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.56304490628667</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.14074707607955</v>
+        <v>-13.13632187771904</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1953868137708278</v>
+        <v>0.194994044685576</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.11085488311266</v>
+        <v>-4.106403500146474</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.99102315217093</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.75036078994496</v>
+        <v>-12.74614506842992</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0423770704595752</v>
+        <v>0.04245562427662556</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.327532495143227</v>
+        <v>-4.322766896908838</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-12.44632776802824</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.1309639425029</v>
+        <v>-12.12738974382711</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.09321991007218168</v>
+        <v>-0.09358649455175001</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.726978654844289</v>
+        <v>-4.722553456483785</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-12.91956135331797</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.70148404008292</v>
+        <v>-11.69785747219576</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.1211065151250582</v>
+        <v>-0.1211719766392668</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.85790168326155</v>
+        <v>-4.852978977393061</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-13.4038126522764</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.92213852882349</v>
+        <v>-10.91855123784486</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.1620199615054522</v>
+        <v>-0.1624650998020709</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.295813028711604</v>
+        <v>-5.290510646060704</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-13.90120015581031</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.66699573104393</v>
+        <v>-10.66347390157951</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.3249274857650497</v>
+        <v>-0.3254119009701935</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.291702045619301</v>
+        <v>-5.286936447384913</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-14.40476612397429</v>
       </c>
       <c r="E59" t="n">
-        <v>-10.04210011640835</v>
+        <v>-10.0388532253036</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.2782272415286128</v>
+        <v>-0.2786854721280732</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.608561958994756</v>
+        <v>-5.603560699309217</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-14.90827097201824</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.738633628839978</v>
+        <v>-9.734823768713035</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.3765897127785007</v>
+        <v>-0.3771657741035366</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.473894531964762</v>
+        <v>-5.469089656821848</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-15.41237709098306</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.162860334466549</v>
+        <v>-9.159286135790758</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.4013996266635716</v>
+        <v>-0.4019887802914493</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.843372410461113</v>
+        <v>-5.838384243078415</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-15.90717044686711</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.686182680302144</v>
+        <v>-8.682621573929195</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.3491482460222429</v>
+        <v>-0.3498552303756961</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.879415520184384</v>
+        <v>-5.874388075893162</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-16.38332766247118</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.237483277310508</v>
+        <v>-8.233765063303458</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.3614419183906237</v>
+        <v>-0.3623845641952279</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.860955373177551</v>
+        <v>-5.856124313428953</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-16.83711076026226</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.890746728850235</v>
+        <v>-7.887054699448869</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.5084292023946823</v>
+        <v>-0.5094111251078117</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.030160295104018</v>
+        <v>-6.025368512263947</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-17.25524675299341</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.538066274899818</v>
+        <v>-7.534321876287085</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.4260000637031749</v>
+        <v>-0.427047447930513</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.261946424613937</v>
+        <v>-6.257481949344908</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-17.62695167334777</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.281522600716196</v>
+        <v>-7.277961494343247</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.5503638483967308</v>
+        <v>-0.5513850480183854</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.200949385674335</v>
+        <v>-6.1968907717934</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-17.94650268621744</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.115158708506383</v>
+        <v>-7.111519048316383</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.6481633506244245</v>
+        <v>-0.6492631040631295</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.286010077237029</v>
+        <v>-6.282043109475986</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-18.19981191097682</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.830479675515892</v>
+        <v>-6.826787646114524</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.6043565053160092</v>
+        <v>-0.6051682280921962</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.234923911548614</v>
+        <v>-6.231048589907463</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-18.37654634371987</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.73057231253068</v>
+        <v>-6.726827913917946</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9076658852502769</v>
+        <v>-0.9083728696037301</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.250569213444477</v>
+        <v>-6.24679863022606</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-18.47495720882141</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.54587919634245</v>
+        <v>-6.542003874701299</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7988557563326916</v>
+        <v>-0.7997853098344542</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.071571248992398</v>
+        <v>-6.068075604133657</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-18.49117704663833</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.477629021628532</v>
+        <v>-6.473452577022021</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.8729974673253863</v>
+        <v>-0.8739008362214654</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.966728087835856</v>
+        <v>-5.96327171988564</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-18.427279515997</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.497110368257021</v>
+        <v>-6.492750631410726</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.010479739466352</v>
+        <v>-1.011317646848222</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.754593504891369</v>
+        <v>-5.751490629117879</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-18.29367441161634</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.55497834681745</v>
+        <v>-6.550566240759788</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.073492993043579</v>
+        <v>-1.074278531214083</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.59304758012731</v>
+        <v>-5.589761412114037</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-18.09835414726937</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.77297828143503</v>
+        <v>-6.768526898468844</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.9504515309370377</v>
+        <v>-0.9513156229245916</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.434918746404943</v>
+        <v>-5.431868239842821</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-17.85266534992475</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.939839681152829</v>
+        <v>-6.935335928975276</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.305017276496663</v>
+        <v>-1.305698076244433</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.26703614706549</v>
+        <v>-5.263998732806209</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-17.57342494914679</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.40245620206522</v>
+        <v>-7.398188111338817</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.24378457610591</v>
+        <v>-1.244413006642313</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.015480640264565</v>
+        <v>-5.012652702850752</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-17.27307887962429</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.815282695270526</v>
+        <v>-7.8112895429038</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.317598979527562</v>
+        <v>-1.318135763944073</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.963726767131221</v>
+        <v>-4.960754814386149</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-16.96346011501796</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.414635227061904</v>
+        <v>-8.410825366934962</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.358721902753423</v>
+        <v>-1.359585994740977</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.617147326305049</v>
+        <v>-4.613834973686092</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-16.65939396894316</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.824450490613613</v>
+        <v>-8.820706092000879</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.392303659542451</v>
+        <v>-1.392932090078854</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.484116437130271</v>
+        <v>-4.480764807602789</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-16.37050648288391</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.263291389565429</v>
+        <v>-9.259717190889639</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.491936084167986</v>
+        <v>-1.492629976218598</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.134159182170933</v>
+        <v>-4.130886106460501</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-16.10267286941552</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.14090772595485</v>
+        <v>-10.13760846563874</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.490875607637806</v>
+        <v>-1.49136002284295</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.149883037883845</v>
+        <v>-4.146387393025105</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-15.86269414490167</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.87327805461817</v>
+        <v>-10.87035847108446</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.579942543870069</v>
+        <v>-1.580269851441112</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.937892470270617</v>
+        <v>-3.934553933045977</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-15.65062226429395</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.65084301269112</v>
+        <v>-11.64815909060857</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.716953493108732</v>
+        <v>-1.717280800679775</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.620809987746854</v>
+        <v>-3.617209604465379</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-15.45916153849526</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.84915530718862</v>
+        <v>-12.84622263135208</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.784077729778262</v>
+        <v>-1.784326483532255</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.473757242228587</v>
+        <v>-3.470235412764162</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-15.28267221590758</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.71496238641481</v>
+        <v>-13.71238320275499</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.836486218053691</v>
+        <v>-1.837023002470202</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.139196535411118</v>
+        <v>-3.135687798249536</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-15.11509414998545</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.81292217963048</v>
+        <v>-14.8106048420275</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.021925595503899</v>
+        <v>-2.022370733800518</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.890848642806417</v>
+        <v>-2.887366090250517</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-14.94730375949068</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.85901026898724</v>
+        <v>-15.85690240822972</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.050885769389797</v>
+        <v>-2.051396369200625</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.451484051740931</v>
+        <v>-2.448224068333342</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-14.77722017132196</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.24655870875905</v>
+        <v>-17.24475197096689</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.974439813096959</v>
+        <v>-1.975369366598721</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.194613069986266</v>
+        <v>-2.191195978944576</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-14.60882962018501</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.85579911254981</v>
+        <v>-18.85425422081449</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.202625559325402</v>
+        <v>-2.203149251439072</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.013245398719835</v>
+        <v>-2.01002469222077</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-14.44411954722509</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.4258280693296</v>
+        <v>-20.42475450049658</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.403068715832228</v>
+        <v>-2.403985177031149</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.7373382086333</v>
+        <v>-1.734012763711501</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-14.2934156429867</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.08261971704151</v>
+        <v>-22.08216148644205</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.543522940718266</v>
+        <v>-2.544779801791071</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.874611003928798</v>
+        <v>-1.871272466704157</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-14.1737004525525</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.71220555944831</v>
+        <v>-23.71212700563126</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.662296312098404</v>
+        <v>-2.663448434748477</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.672832432532115</v>
+        <v>-1.669624818335892</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-14.09224023751533</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.81155632011908</v>
+        <v>-25.81172652005603</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.753719862842178</v>
+        <v>-2.755055277732034</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.64450068918262</v>
+        <v>-1.641122875049455</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-14.05603328112505</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.01474213462759</v>
+        <v>-28.01535747286115</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.594779306343623</v>
+        <v>-2.596153998142004</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.721614352920387</v>
+        <v>-1.718616215569631</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-14.07365268745168</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.26458891646401</v>
+        <v>-30.26545300845156</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.024743623968749</v>
+        <v>-3.026105223464289</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.088434493939868</v>
+        <v>-2.085410171983429</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-14.13688553010349</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.49844999653067</v>
+        <v>-32.49939264233528</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.011101444407671</v>
+        <v>-3.012934366805512</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.353671457210396</v>
+        <v>-2.350660227556799</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-14.23531477487513</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.74631984063799</v>
+        <v>-34.74713156341418</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.267514195562875</v>
+        <v>-3.269543502503343</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.519655672637799</v>
+        <v>-2.516958658252404</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-14.36034177575754</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.24282560801252</v>
+        <v>-37.24376825381713</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.518349625707505</v>
+        <v>-3.520339655739448</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.983686162257096</v>
+        <v>-2.980949870963175</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-14.48813723775509</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.67097646225041</v>
+        <v>-39.67220713871753</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.458701093960602</v>
+        <v>-3.460390001027184</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.469777182164702</v>
+        <v>-3.467289644624774</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-14.59871526217086</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.24018378730505</v>
+        <v>-42.24155847910343</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.636599304973975</v>
+        <v>-3.638406042766134</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.741547204553251</v>
+        <v>-3.739203682344582</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-14.6760590853037</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.53938855085477</v>
+        <v>-44.54054067350484</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.833507539713535</v>
+        <v>-3.835183354477276</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.236881390267115</v>
+        <v>-4.234996098657906</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-14.70084413413522</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.85999922955072</v>
+        <v>-46.86087641384111</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.952791510904501</v>
+        <v>-3.954532787182451</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.543634045848757</v>
+        <v>-4.541565461999764</v>
       </c>
     </row>
   </sheetData>
